--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_100_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_100_1_replicas.xlsx
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="181">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>RF</t>
   </si>
@@ -31,9 +34,6 @@
     <t>ExtraTree</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -64,34 +64,46 @@
     <t>Time</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
     <t>0.936+/-0.001</t>
   </si>
   <si>
-    <t>0.891+/-0.0</t>
-  </si>
-  <si>
-    <t>0.88</t>
-  </si>
-  <si>
-    <t>0.943+/-0.003</t>
-  </si>
-  <si>
-    <t>0.818+/-0.028</t>
-  </si>
-  <si>
-    <t>0.785</t>
-  </si>
-  <si>
-    <t>0.724+/-0.004</t>
-  </si>
-  <si>
-    <t>0.59+/-0.044</t>
-  </si>
-  <si>
-    <t>0.555</t>
-  </si>
-  <si>
-    <t>6.531+/-0.103</t>
+    <t>0.89+/-0.0</t>
+  </si>
+  <si>
+    <t>0.879</t>
+  </si>
+  <si>
+    <t>0.944+/-0.005</t>
+  </si>
+  <si>
+    <t>0.816+/-0.024</t>
+  </si>
+  <si>
+    <t>0.788</t>
+  </si>
+  <si>
+    <t>0.725+/-0.005</t>
+  </si>
+  <si>
+    <t>0.586+/-0.041</t>
+  </si>
+  <si>
+    <t>0.547</t>
+  </si>
+  <si>
+    <t>5.074+/-0.129</t>
   </si>
   <si>
     <t>0.892+/-0.002</t>
@@ -121,7 +133,7 @@
     <t>0.552</t>
   </si>
   <si>
-    <t>1.262+/-0.03</t>
+    <t>0.918+/-0.02</t>
   </si>
   <si>
     <t>0.92+/-0.001</t>
@@ -145,394 +157,409 @@
     <t>0.701+/-0.004</t>
   </si>
   <si>
-    <t>0.633+/-0.043</t>
+    <t>0.633+/-0.042</t>
   </si>
   <si>
     <t>0.592</t>
   </si>
   <si>
-    <t>4.576+/-0.239</t>
-  </si>
-  <si>
-    <t>0.834+/-0.002</t>
-  </si>
-  <si>
-    <t>0.826+/-0.0</t>
+    <t>3.721+/-0.052</t>
+  </si>
+  <si>
+    <t>0.836+/-0.003</t>
+  </si>
+  <si>
+    <t>0.828+/-0.0</t>
+  </si>
+  <si>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>0.904+/-0.008</t>
+  </si>
+  <si>
+    <t>0.856+/-0.065</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>0.206+/-0.015</t>
+  </si>
+  <si>
+    <t>0.176+/-0.041</t>
+  </si>
+  <si>
+    <t>0.152</t>
+  </si>
+  <si>
+    <t>0.475+/-0.021</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.941+/-0.001</t>
+  </si>
+  <si>
+    <t>0.902+/-0.0</t>
+  </si>
+  <si>
+    <t>0.891</t>
+  </si>
+  <si>
+    <t>0.934+/-0.004</t>
+  </si>
+  <si>
+    <t>0.779+/-0.05</t>
+  </si>
+  <si>
+    <t>0.736</t>
+  </si>
+  <si>
+    <t>0.654+/-0.005</t>
+  </si>
+  <si>
+    <t>0.484+/-0.044</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>5.407+/-0.056</t>
+  </si>
+  <si>
+    <t>0.905+/-0.002</t>
+  </si>
+  <si>
+    <t>0.889</t>
+  </si>
+  <si>
+    <t>0.736+/-0.012</t>
+  </si>
+  <si>
+    <t>0.694+/-0.046</t>
+  </si>
+  <si>
+    <t>0.686</t>
+  </si>
+  <si>
+    <t>0.571+/-0.007</t>
+  </si>
+  <si>
+    <t>0.527+/-0.025</t>
+  </si>
+  <si>
+    <t>0.477</t>
+  </si>
+  <si>
+    <t>0.857+/-0.023</t>
+  </si>
+  <si>
+    <t>0.932+/-0.001</t>
+  </si>
+  <si>
+    <t>0.904+/-0.0</t>
+  </si>
+  <si>
+    <t>0.896</t>
+  </si>
+  <si>
+    <t>0.842+/-0.005</t>
+  </si>
+  <si>
+    <t>0.739+/-0.048</t>
+  </si>
+  <si>
+    <t>0.709</t>
+  </si>
+  <si>
+    <t>0.672+/-0.009</t>
+  </si>
+  <si>
+    <t>0.565+/-0.031</t>
+  </si>
+  <si>
+    <t>0.523</t>
+  </si>
+  <si>
+    <t>3.269+/-0.042</t>
+  </si>
+  <si>
+    <t>0.874+/-0.001</t>
+  </si>
+  <si>
+    <t>0.866+/-0.0</t>
+  </si>
+  <si>
+    <t>0.862</t>
+  </si>
+  <si>
+    <t>0.911+/-0.011</t>
+  </si>
+  <si>
+    <t>0.825+/-0.094</t>
+  </si>
+  <si>
+    <t>0.795</t>
+  </si>
+  <si>
+    <t>0.179+/-0.01</t>
+  </si>
+  <si>
+    <t>0.141+/-0.029</t>
+  </si>
+  <si>
+    <t>0.111</t>
+  </si>
+  <si>
+    <t>0.476+/-0.025</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.862+/-0.002</t>
+  </si>
+  <si>
+    <t>0.781+/-0.0</t>
+  </si>
+  <si>
+    <t>0.791</t>
+  </si>
+  <si>
+    <t>0.958+/-0.003</t>
+  </si>
+  <si>
+    <t>0.708+/-0.045</t>
+  </si>
+  <si>
+    <t>0.729</t>
+  </si>
+  <si>
+    <t>0.526+/-0.009</t>
+  </si>
+  <si>
+    <t>0.36+/-0.036</t>
+  </si>
+  <si>
+    <t>0.392</t>
+  </si>
+  <si>
+    <t>5.408+/-0.085</t>
+  </si>
+  <si>
+    <t>0.784+/-0.003</t>
+  </si>
+  <si>
+    <t>0.773+/-0.0</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>0.703+/-0.007</t>
+  </si>
+  <si>
+    <t>0.666+/-0.035</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>0.384+/-0.008</t>
+  </si>
+  <si>
+    <t>0.359+/-0.035</t>
+  </si>
+  <si>
+    <t>0.396</t>
+  </si>
+  <si>
+    <t>0.895+/-0.017</t>
+  </si>
+  <si>
+    <t>0.824+/-0.001</t>
+  </si>
+  <si>
+    <t>0.785+/-0.0</t>
+  </si>
+  <si>
+    <t>0.781+/-0.006</t>
+  </si>
+  <si>
+    <t>0.68+/-0.026</t>
+  </si>
+  <si>
+    <t>0.505+/-0.006</t>
+  </si>
+  <si>
+    <t>0.425+/-0.031</t>
+  </si>
+  <si>
+    <t>0.449</t>
+  </si>
+  <si>
+    <t>3.541+/-0.037</t>
+  </si>
+  <si>
+    <t>0.743+/-0.002</t>
+  </si>
+  <si>
+    <t>0.736+/-0.0</t>
+  </si>
+  <si>
+    <t>0.737</t>
+  </si>
+  <si>
+    <t>0.896+/-0.009</t>
+  </si>
+  <si>
+    <t>0.799+/-0.053</t>
+  </si>
+  <si>
+    <t>0.081+/-0.006</t>
+  </si>
+  <si>
+    <t>0.062+/-0.025</t>
+  </si>
+  <si>
+    <t>0.068</t>
+  </si>
+  <si>
+    <t>0.493+/-0.022</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.831+/-0.002</t>
+  </si>
+  <si>
+    <t>0.755+/-0.0</t>
+  </si>
+  <si>
+    <t>0.763</t>
+  </si>
+  <si>
+    <t>0.94+/-0.004</t>
+  </si>
+  <si>
+    <t>0.709+/-0.039</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>0.483+/-0.007</t>
+  </si>
+  <si>
+    <t>0.348+/-0.019</t>
+  </si>
+  <si>
+    <t>0.377</t>
+  </si>
+  <si>
+    <t>5.398+/-0.089</t>
+  </si>
+  <si>
+    <t>0.765+/-0.002</t>
+  </si>
+  <si>
+    <t>0.756+/-0.0</t>
+  </si>
+  <si>
+    <t>0.762</t>
+  </si>
+  <si>
+    <t>0.725+/-0.006</t>
+  </si>
+  <si>
+    <t>0.705+/-0.038</t>
+  </si>
+  <si>
+    <t>0.718</t>
+  </si>
+  <si>
+    <t>0.38+/-0.006</t>
+  </si>
+  <si>
+    <t>0.362+/-0.019</t>
+  </si>
+  <si>
+    <t>0.373</t>
+  </si>
+  <si>
+    <t>0.952+/-0.033</t>
+  </si>
+  <si>
+    <t>0.798+/-0.003</t>
+  </si>
+  <si>
+    <t>0.757+/-0.0</t>
+  </si>
+  <si>
+    <t>0.759</t>
+  </si>
+  <si>
+    <t>0.787+/-0.006</t>
+  </si>
+  <si>
+    <t>0.687+/-0.043</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.47+/-0.008</t>
+  </si>
+  <si>
+    <t>0.394+/-0.02</t>
+  </si>
+  <si>
+    <t>0.408</t>
+  </si>
+  <si>
+    <t>3.834+/-0.071</t>
+  </si>
+  <si>
+    <t>0.713+/-0.002</t>
+  </si>
+  <si>
+    <t>0.707+/-0.0</t>
+  </si>
+  <si>
+    <t>0.712</t>
+  </si>
+  <si>
+    <t>0.892+/-0.011</t>
+  </si>
+  <si>
+    <t>0.815+/-0.103</t>
   </si>
   <si>
     <t>0.817</t>
   </si>
   <si>
-    <t>0.902+/-0.005</t>
-  </si>
-  <si>
-    <t>0.843+/-0.06</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>0.199+/-0.011</t>
-  </si>
-  <si>
-    <t>0.168+/-0.047</t>
-  </si>
-  <si>
-    <t>0.136</t>
-  </si>
-  <si>
-    <t>0.73+/-0.054</t>
-  </si>
-  <si>
-    <t>0.941+/-0.001</t>
-  </si>
-  <si>
-    <t>0.901+/-0.0</t>
-  </si>
-  <si>
-    <t>0.891</t>
-  </si>
-  <si>
-    <t>0.934+/-0.005</t>
-  </si>
-  <si>
-    <t>0.778+/-0.043</t>
-  </si>
-  <si>
-    <t>0.732</t>
-  </si>
-  <si>
-    <t>0.656+/-0.006</t>
-  </si>
-  <si>
-    <t>0.48+/-0.041</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>7.348+/-0.792</t>
-  </si>
-  <si>
-    <t>0.905+/-0.002</t>
-  </si>
-  <si>
-    <t>0.889</t>
-  </si>
-  <si>
-    <t>0.736+/-0.012</t>
-  </si>
-  <si>
-    <t>0.694+/-0.046</t>
-  </si>
-  <si>
-    <t>0.686</t>
-  </si>
-  <si>
-    <t>0.571+/-0.007</t>
-  </si>
-  <si>
-    <t>0.527+/-0.025</t>
-  </si>
-  <si>
-    <t>0.477</t>
-  </si>
-  <si>
-    <t>0.974+/-0.043</t>
-  </si>
-  <si>
-    <t>0.932+/-0.001</t>
-  </si>
-  <si>
-    <t>0.904+/-0.0</t>
-  </si>
-  <si>
-    <t>0.896</t>
-  </si>
-  <si>
-    <t>0.842+/-0.005</t>
-  </si>
-  <si>
-    <t>0.739+/-0.048</t>
-  </si>
-  <si>
-    <t>0.709</t>
-  </si>
-  <si>
-    <t>0.672+/-0.009</t>
-  </si>
-  <si>
-    <t>0.565+/-0.031</t>
-  </si>
-  <si>
-    <t>0.523</t>
-  </si>
-  <si>
-    <t>3.463+/-0.036</t>
-  </si>
-  <si>
-    <t>0.874+/-0.002</t>
-  </si>
-  <si>
-    <t>0.866+/-0.0</t>
-  </si>
-  <si>
-    <t>0.862</t>
-  </si>
-  <si>
-    <t>0.91+/-0.007</t>
-  </si>
-  <si>
-    <t>0.838+/-0.098</t>
-  </si>
-  <si>
-    <t>0.767</t>
-  </si>
-  <si>
-    <t>0.176+/-0.011</t>
-  </si>
-  <si>
-    <t>0.136+/-0.027</t>
-  </si>
-  <si>
-    <t>0.118</t>
-  </si>
-  <si>
-    <t>0.54+/-0.019</t>
-  </si>
-  <si>
-    <t>0.862+/-0.002</t>
-  </si>
-  <si>
-    <t>0.781+/-0.0</t>
-  </si>
-  <si>
-    <t>0.795</t>
-  </si>
-  <si>
-    <t>0.955+/-0.004</t>
-  </si>
-  <si>
-    <t>0.708+/-0.047</t>
-  </si>
-  <si>
-    <t>0.738</t>
-  </si>
-  <si>
-    <t>0.526+/-0.009</t>
-  </si>
-  <si>
-    <t>0.36+/-0.036</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>5.947+/-0.084</t>
-  </si>
-  <si>
-    <t>0.784+/-0.003</t>
-  </si>
-  <si>
-    <t>0.773+/-0.0</t>
-  </si>
-  <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>0.703+/-0.007</t>
-  </si>
-  <si>
-    <t>0.666+/-0.035</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>0.384+/-0.008</t>
-  </si>
-  <si>
-    <t>0.359+/-0.035</t>
-  </si>
-  <si>
-    <t>0.396</t>
-  </si>
-  <si>
-    <t>0.992+/-0.027</t>
-  </si>
-  <si>
-    <t>0.824+/-0.001</t>
-  </si>
-  <si>
-    <t>0.785+/-0.0</t>
-  </si>
-  <si>
-    <t>0.788</t>
-  </si>
-  <si>
-    <t>0.781+/-0.006</t>
-  </si>
-  <si>
-    <t>0.679+/-0.027</t>
-  </si>
-  <si>
-    <t>0.505+/-0.006</t>
-  </si>
-  <si>
-    <t>0.425+/-0.031</t>
-  </si>
-  <si>
-    <t>0.449</t>
-  </si>
-  <si>
-    <t>3.966+/-0.293</t>
-  </si>
-  <si>
-    <t>0.743+/-0.002</t>
-  </si>
-  <si>
-    <t>0.736+/-0.0</t>
-  </si>
-  <si>
-    <t>0.734</t>
-  </si>
-  <si>
-    <t>0.897+/-0.011</t>
-  </si>
-  <si>
-    <t>0.826+/-0.046</t>
-  </si>
-  <si>
-    <t>0.784</t>
-  </si>
-  <si>
     <t>0.079+/-0.008</t>
   </si>
   <si>
-    <t>0.061+/-0.014</t>
-  </si>
-  <si>
-    <t>0.056</t>
-  </si>
-  <si>
-    <t>0.599+/-0.045</t>
-  </si>
-  <si>
-    <t>0.831+/-0.002</t>
-  </si>
-  <si>
-    <t>0.754+/-0.0</t>
-  </si>
-  <si>
-    <t>0.759</t>
-  </si>
-  <si>
-    <t>0.94+/-0.004</t>
-  </si>
-  <si>
-    <t>0.704+/-0.035</t>
-  </si>
-  <si>
-    <t>0.715</t>
-  </si>
-  <si>
-    <t>0.482+/-0.006</t>
-  </si>
-  <si>
-    <t>0.351+/-0.023</t>
-  </si>
-  <si>
-    <t>0.363</t>
-  </si>
-  <si>
-    <t>6.995+/-0.5</t>
-  </si>
-  <si>
-    <t>0.765+/-0.002</t>
-  </si>
-  <si>
-    <t>0.756+/-0.0</t>
-  </si>
-  <si>
-    <t>0.762</t>
-  </si>
-  <si>
-    <t>0.725+/-0.006</t>
-  </si>
-  <si>
-    <t>0.705+/-0.038</t>
-  </si>
-  <si>
-    <t>0.718</t>
-  </si>
-  <si>
-    <t>0.38+/-0.006</t>
-  </si>
-  <si>
-    <t>0.362+/-0.019</t>
-  </si>
-  <si>
-    <t>0.373</t>
-  </si>
-  <si>
-    <t>1.279+/-0.149</t>
-  </si>
-  <si>
-    <t>0.798+/-0.003</t>
-  </si>
-  <si>
-    <t>0.757+/-0.0</t>
-  </si>
-  <si>
-    <t>0.787+/-0.006</t>
-  </si>
-  <si>
-    <t>0.687+/-0.043</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>0.47+/-0.008</t>
-  </si>
-  <si>
-    <t>0.395+/-0.02</t>
-  </si>
-  <si>
-    <t>0.408</t>
-  </si>
-  <si>
-    <t>3.942+/-0.162</t>
-  </si>
-  <si>
-    <t>0.713+/-0.002</t>
-  </si>
-  <si>
-    <t>0.706+/-0.0</t>
-  </si>
-  <si>
-    <t>0.704</t>
-  </si>
-  <si>
-    <t>0.89+/-0.011</t>
-  </si>
-  <si>
-    <t>0.802+/-0.104</t>
-  </si>
-  <si>
-    <t>0.775</t>
-  </si>
-  <si>
-    <t>0.078+/-0.007</t>
-  </si>
-  <si>
-    <t>0.062+/-0.014</t>
-  </si>
-  <si>
-    <t>0.054</t>
-  </si>
-  <si>
-    <t>0.544+/-0.017</t>
+    <t>0.062+/-0.02</t>
+  </si>
+  <si>
+    <t>0.086</t>
+  </si>
+  <si>
+    <t>0.533+/-0.035</t>
   </si>
 </sst>
 </file>
@@ -921,16 +948,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2">
-        <v>0.7986820871436255</v>
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -938,19 +965,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3">
-        <v>0.7986820871436255</v>
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -958,19 +985,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4">
-        <v>0.7983870967741935</v>
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -978,19 +1005,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -998,19 +1025,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1018,19 +1045,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1038,19 +1065,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1058,19 +1085,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1078,19 +1105,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1098,19 +1125,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1148,19 +1175,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2">
-        <v>0.8500537923614847</v>
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1168,19 +1195,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3">
-        <v>0.8500537923614847</v>
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1188,19 +1215,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4">
-        <v>0.85</v>
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1208,19 +1235,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="F5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1228,19 +1255,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1248,19 +1275,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1268,19 +1295,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1288,19 +1315,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1308,19 +1335,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1328,19 +1355,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1378,19 +1405,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2">
-        <v>0.7231038192576654</v>
+        <v>122</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1398,19 +1425,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3">
-        <v>0.7231038192576654</v>
+        <v>123</v>
+      </c>
+      <c r="F3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1418,19 +1445,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F4">
-        <v>0.7231182795698925</v>
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1438,19 +1465,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>124</v>
+      </c>
+      <c r="F5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1458,19 +1485,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="F6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1478,19 +1505,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>117</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1498,19 +1525,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>126</v>
+      </c>
+      <c r="F8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1518,19 +1545,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>127</v>
+      </c>
+      <c r="F9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1538,19 +1565,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="F10" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1558,19 +1585,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="F11" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1608,19 +1635,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F2">
-        <v>0.6919042495965573</v>
+        <v>161</v>
+      </c>
+      <c r="F2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1628,19 +1655,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F3">
-        <v>0.6919042495965573</v>
+        <v>162</v>
+      </c>
+      <c r="F3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1648,19 +1675,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F4">
-        <v>0.6919354838709677</v>
+        <v>163</v>
+      </c>
+      <c r="F4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1668,19 +1695,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
+        <v>164</v>
+      </c>
+      <c r="F5" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1688,19 +1715,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="F6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1708,19 +1735,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="F7" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1728,19 +1755,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="F8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1748,19 +1775,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="F9" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1768,19 +1795,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+        <v>169</v>
+      </c>
+      <c r="F10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1788,19 +1815,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+        <v>170</v>
+      </c>
+      <c r="F11" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_100_1_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/ensemble_models_results_Date_threshold_100_1_replicas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="183">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -79,31 +79,31 @@
     <t>0.936+/-0.001</t>
   </si>
   <si>
-    <t>0.89+/-0.0</t>
+    <t>0.891+/-0.0</t>
   </si>
   <si>
     <t>0.879</t>
   </si>
   <si>
-    <t>0.944+/-0.005</t>
-  </si>
-  <si>
-    <t>0.816+/-0.024</t>
-  </si>
-  <si>
-    <t>0.788</t>
-  </si>
-  <si>
-    <t>0.725+/-0.005</t>
-  </si>
-  <si>
-    <t>0.586+/-0.041</t>
-  </si>
-  <si>
-    <t>0.547</t>
-  </si>
-  <si>
-    <t>5.074+/-0.129</t>
+    <t>0.943+/-0.005</t>
+  </si>
+  <si>
+    <t>0.824+/-0.024</t>
+  </si>
+  <si>
+    <t>0.778</t>
+  </si>
+  <si>
+    <t>0.724+/-0.006</t>
+  </si>
+  <si>
+    <t>0.585+/-0.046</t>
+  </si>
+  <si>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>7.199+/-0.465</t>
   </si>
   <si>
     <t>0.892+/-0.002</t>
@@ -133,7 +133,7 @@
     <t>0.552</t>
   </si>
   <si>
-    <t>0.918+/-0.02</t>
+    <t>1.322+/-0.098</t>
   </si>
   <si>
     <t>0.92+/-0.001</t>
@@ -163,37 +163,37 @@
     <t>0.592</t>
   </si>
   <si>
-    <t>3.721+/-0.052</t>
-  </si>
-  <si>
-    <t>0.836+/-0.003</t>
-  </si>
-  <si>
-    <t>0.828+/-0.0</t>
+    <t>5.436+/-0.061</t>
+  </si>
+  <si>
+    <t>0.833+/-0.002</t>
+  </si>
+  <si>
+    <t>0.825+/-0.0</t>
   </si>
   <si>
     <t>0.82</t>
   </si>
   <si>
-    <t>0.904+/-0.008</t>
-  </si>
-  <si>
-    <t>0.856+/-0.065</t>
-  </si>
-  <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>0.206+/-0.015</t>
-  </si>
-  <si>
-    <t>0.176+/-0.041</t>
-  </si>
-  <si>
-    <t>0.152</t>
-  </si>
-  <si>
-    <t>0.475+/-0.021</t>
+    <t>0.901+/-0.007</t>
+  </si>
+  <si>
+    <t>0.839+/-0.071</t>
+  </si>
+  <si>
+    <t>0.797</t>
+  </si>
+  <si>
+    <t>0.194+/-0.01</t>
+  </si>
+  <si>
+    <t>0.16+/-0.048</t>
+  </si>
+  <si>
+    <t>0.147</t>
+  </si>
+  <si>
+    <t>0.859+/-0.014</t>
   </si>
   <si>
     <t>0.85+/-0.0</t>
@@ -202,34 +202,37 @@
     <t>0.85</t>
   </si>
   <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
     <t>0.941+/-0.001</t>
   </si>
   <si>
-    <t>0.902+/-0.0</t>
-  </si>
-  <si>
-    <t>0.891</t>
-  </si>
-  <si>
-    <t>0.934+/-0.004</t>
-  </si>
-  <si>
-    <t>0.779+/-0.05</t>
-  </si>
-  <si>
-    <t>0.736</t>
-  </si>
-  <si>
-    <t>0.654+/-0.005</t>
-  </si>
-  <si>
-    <t>0.484+/-0.044</t>
-  </si>
-  <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>5.407+/-0.056</t>
+    <t>0.901+/-0.0</t>
+  </si>
+  <si>
+    <t>0.892</t>
+  </si>
+  <si>
+    <t>0.934+/-0.006</t>
+  </si>
+  <si>
+    <t>0.778+/-0.049</t>
+  </si>
+  <si>
+    <t>0.744</t>
+  </si>
+  <si>
+    <t>0.654+/-0.008</t>
+  </si>
+  <si>
+    <t>0.476+/-0.034</t>
+  </si>
+  <si>
+    <t>0.427</t>
+  </si>
+  <si>
+    <t>7.054+/-0.442</t>
   </si>
   <si>
     <t>0.905+/-0.002</t>
@@ -256,7 +259,7 @@
     <t>0.477</t>
   </si>
   <si>
-    <t>0.857+/-0.023</t>
+    <t>1.185+/-0.063</t>
   </si>
   <si>
     <t>0.932+/-0.001</t>
@@ -271,52 +274,52 @@
     <t>0.842+/-0.005</t>
   </si>
   <si>
-    <t>0.739+/-0.048</t>
-  </si>
-  <si>
-    <t>0.709</t>
+    <t>0.738+/-0.049</t>
+  </si>
+  <si>
+    <t>0.707</t>
   </si>
   <si>
     <t>0.672+/-0.009</t>
   </si>
   <si>
-    <t>0.565+/-0.031</t>
-  </si>
-  <si>
-    <t>0.523</t>
-  </si>
-  <si>
-    <t>3.269+/-0.042</t>
-  </si>
-  <si>
-    <t>0.874+/-0.001</t>
-  </si>
-  <si>
-    <t>0.866+/-0.0</t>
-  </si>
-  <si>
-    <t>0.862</t>
-  </si>
-  <si>
-    <t>0.911+/-0.011</t>
-  </si>
-  <si>
-    <t>0.825+/-0.094</t>
-  </si>
-  <si>
-    <t>0.795</t>
-  </si>
-  <si>
-    <t>0.179+/-0.01</t>
-  </si>
-  <si>
-    <t>0.141+/-0.029</t>
-  </si>
-  <si>
-    <t>0.111</t>
-  </si>
-  <si>
-    <t>0.476+/-0.025</t>
+    <t>0.564+/-0.031</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>4.667+/-0.228</t>
+  </si>
+  <si>
+    <t>0.874+/-0.002</t>
+  </si>
+  <si>
+    <t>0.867+/-0.0</t>
+  </si>
+  <si>
+    <t>0.863</t>
+  </si>
+  <si>
+    <t>0.912+/-0.007</t>
+  </si>
+  <si>
+    <t>0.846+/-0.084</t>
+  </si>
+  <si>
+    <t>0.821</t>
+  </si>
+  <si>
+    <t>0.179+/-0.013</t>
+  </si>
+  <si>
+    <t>0.14+/-0.027</t>
+  </si>
+  <si>
+    <t>0.115</t>
+  </si>
+  <si>
+    <t>0.671+/-0.016</t>
   </si>
   <si>
     <t>0.723+/-0.0</t>
@@ -325,241 +328,244 @@
     <t>0.723</t>
   </si>
   <si>
-    <t>0.862+/-0.002</t>
-  </si>
-  <si>
-    <t>0.781+/-0.0</t>
-  </si>
-  <si>
-    <t>0.791</t>
-  </si>
-  <si>
-    <t>0.958+/-0.003</t>
-  </si>
-  <si>
-    <t>0.708+/-0.045</t>
-  </si>
-  <si>
-    <t>0.729</t>
-  </si>
-  <si>
-    <t>0.526+/-0.009</t>
-  </si>
-  <si>
-    <t>0.36+/-0.036</t>
+    <t>0.863+/-0.003</t>
+  </si>
+  <si>
+    <t>0.78+/-0.0</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>0.964+/-0.004</t>
+  </si>
+  <si>
+    <t>0.708+/-0.048</t>
+  </si>
+  <si>
+    <t>0.721</t>
+  </si>
+  <si>
+    <t>0.526+/-0.011</t>
+  </si>
+  <si>
+    <t>0.354+/-0.031</t>
   </si>
   <si>
     <t>0.392</t>
   </si>
   <si>
-    <t>5.408+/-0.085</t>
-  </si>
-  <si>
-    <t>0.784+/-0.003</t>
+    <t>6.928+/-0.132</t>
+  </si>
+  <si>
+    <t>0.784+/-0.002</t>
   </si>
   <si>
     <t>0.773+/-0.0</t>
   </si>
   <si>
-    <t>0.78</t>
-  </si>
-  <si>
-    <t>0.703+/-0.007</t>
-  </si>
-  <si>
-    <t>0.666+/-0.035</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t>0.384+/-0.008</t>
-  </si>
-  <si>
-    <t>0.359+/-0.035</t>
-  </si>
-  <si>
-    <t>0.396</t>
-  </si>
-  <si>
-    <t>0.895+/-0.017</t>
+    <t>0.789</t>
+  </si>
+  <si>
+    <t>0.703+/-0.006</t>
+  </si>
+  <si>
+    <t>0.669+/-0.024</t>
+  </si>
+  <si>
+    <t>0.704</t>
+  </si>
+  <si>
+    <t>0.381+/-0.007</t>
+  </si>
+  <si>
+    <t>0.359+/-0.026</t>
+  </si>
+  <si>
+    <t>0.412</t>
+  </si>
+  <si>
+    <t>1.195+/-0.058</t>
   </si>
   <si>
     <t>0.824+/-0.001</t>
   </si>
   <si>
-    <t>0.785+/-0.0</t>
-  </si>
-  <si>
-    <t>0.781+/-0.006</t>
-  </si>
-  <si>
-    <t>0.68+/-0.026</t>
-  </si>
-  <si>
-    <t>0.505+/-0.006</t>
-  </si>
-  <si>
-    <t>0.425+/-0.031</t>
-  </si>
-  <si>
-    <t>0.449</t>
-  </si>
-  <si>
-    <t>3.541+/-0.037</t>
-  </si>
-  <si>
-    <t>0.743+/-0.002</t>
+    <t>0.784+/-0.0</t>
+  </si>
+  <si>
+    <t>0.786</t>
+  </si>
+  <si>
+    <t>0.782+/-0.003</t>
+  </si>
+  <si>
+    <t>0.678+/-0.033</t>
+  </si>
+  <si>
+    <t>0.673</t>
+  </si>
+  <si>
+    <t>0.508+/-0.005</t>
+  </si>
+  <si>
+    <t>0.423+/-0.024</t>
+  </si>
+  <si>
+    <t>0.443</t>
+  </si>
+  <si>
+    <t>4.435+/-0.049</t>
+  </si>
+  <si>
+    <t>0.741+/-0.002</t>
   </si>
   <si>
     <t>0.736+/-0.0</t>
   </si>
   <si>
-    <t>0.737</t>
-  </si>
-  <si>
-    <t>0.896+/-0.009</t>
-  </si>
-  <si>
-    <t>0.799+/-0.053</t>
-  </si>
-  <si>
-    <t>0.081+/-0.006</t>
-  </si>
-  <si>
-    <t>0.062+/-0.025</t>
+    <t>0.735</t>
+  </si>
+  <si>
+    <t>0.897+/-0.014</t>
+  </si>
+  <si>
+    <t>0.815+/-0.042</t>
+  </si>
+  <si>
+    <t>0.775</t>
+  </si>
+  <si>
+    <t>0.074+/-0.005</t>
+  </si>
+  <si>
+    <t>0.059+/-0.02</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.702+/-0.04</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.832+/-0.002</t>
+  </si>
+  <si>
+    <t>0.755+/-0.0</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>0.708+/-0.038</t>
+  </si>
+  <si>
+    <t>0.713</t>
+  </si>
+  <si>
+    <t>0.484+/-0.006</t>
+  </si>
+  <si>
+    <t>0.348+/-0.018</t>
+  </si>
+  <si>
+    <t>0.368</t>
+  </si>
+  <si>
+    <t>7.032+/-0.28</t>
+  </si>
+  <si>
+    <t>0.764+/-0.002</t>
+  </si>
+  <si>
+    <t>0.763</t>
+  </si>
+  <si>
+    <t>0.724+/-0.005</t>
+  </si>
+  <si>
+    <t>0.704+/-0.045</t>
+  </si>
+  <si>
+    <t>0.717</t>
+  </si>
+  <si>
+    <t>0.379+/-0.007</t>
+  </si>
+  <si>
+    <t>0.36+/-0.025</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>1.176+/-0.022</t>
+  </si>
+  <si>
+    <t>0.798+/-0.002</t>
+  </si>
+  <si>
+    <t>0.76+/-0.0</t>
+  </si>
+  <si>
+    <t>0.761</t>
+  </si>
+  <si>
+    <t>0.788+/-0.004</t>
+  </si>
+  <si>
+    <t>0.693+/-0.043</t>
+  </si>
+  <si>
+    <t>0.685</t>
+  </si>
+  <si>
+    <t>0.473+/-0.006</t>
+  </si>
+  <si>
+    <t>0.4+/-0.015</t>
+  </si>
+  <si>
+    <t>0.414</t>
+  </si>
+  <si>
+    <t>4.51+/-0.07</t>
+  </si>
+  <si>
+    <t>0.714+/-0.002</t>
+  </si>
+  <si>
+    <t>0.706+/-0.0</t>
+  </si>
+  <si>
+    <t>0.708</t>
+  </si>
+  <si>
+    <t>0.906+/-0.017</t>
+  </si>
+  <si>
+    <t>0.819+/-0.09</t>
+  </si>
+  <si>
+    <t>0.796</t>
+  </si>
+  <si>
+    <t>0.079+/-0.008</t>
+  </si>
+  <si>
+    <t>0.059+/-0.014</t>
   </si>
   <si>
     <t>0.068</t>
   </si>
   <si>
-    <t>0.493+/-0.022</t>
-  </si>
-  <si>
-    <t>0.692+/-0.0</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.831+/-0.002</t>
-  </si>
-  <si>
-    <t>0.755+/-0.0</t>
-  </si>
-  <si>
-    <t>0.763</t>
-  </si>
-  <si>
-    <t>0.94+/-0.004</t>
-  </si>
-  <si>
-    <t>0.709+/-0.039</t>
-  </si>
-  <si>
-    <t>0.722</t>
-  </si>
-  <si>
-    <t>0.483+/-0.007</t>
-  </si>
-  <si>
-    <t>0.348+/-0.019</t>
-  </si>
-  <si>
-    <t>0.377</t>
-  </si>
-  <si>
-    <t>5.398+/-0.089</t>
-  </si>
-  <si>
-    <t>0.765+/-0.002</t>
-  </si>
-  <si>
-    <t>0.756+/-0.0</t>
-  </si>
-  <si>
-    <t>0.762</t>
-  </si>
-  <si>
-    <t>0.725+/-0.006</t>
-  </si>
-  <si>
-    <t>0.705+/-0.038</t>
-  </si>
-  <si>
-    <t>0.718</t>
-  </si>
-  <si>
-    <t>0.38+/-0.006</t>
-  </si>
-  <si>
-    <t>0.362+/-0.019</t>
-  </si>
-  <si>
-    <t>0.373</t>
-  </si>
-  <si>
-    <t>0.952+/-0.033</t>
-  </si>
-  <si>
-    <t>0.798+/-0.003</t>
-  </si>
-  <si>
-    <t>0.757+/-0.0</t>
-  </si>
-  <si>
-    <t>0.759</t>
-  </si>
-  <si>
-    <t>0.787+/-0.006</t>
-  </si>
-  <si>
-    <t>0.687+/-0.043</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>0.47+/-0.008</t>
-  </si>
-  <si>
-    <t>0.394+/-0.02</t>
-  </si>
-  <si>
-    <t>0.408</t>
-  </si>
-  <si>
-    <t>3.834+/-0.071</t>
-  </si>
-  <si>
-    <t>0.713+/-0.002</t>
-  </si>
-  <si>
-    <t>0.707+/-0.0</t>
-  </si>
-  <si>
-    <t>0.712</t>
-  </si>
-  <si>
-    <t>0.892+/-0.011</t>
-  </si>
-  <si>
-    <t>0.815+/-0.103</t>
-  </si>
-  <si>
-    <t>0.817</t>
-  </si>
-  <si>
-    <t>0.079+/-0.008</t>
-  </si>
-  <si>
-    <t>0.062+/-0.02</t>
-  </si>
-  <si>
-    <t>0.086</t>
-  </si>
-  <si>
-    <t>0.533+/-0.035</t>
+    <t>0.677+/-0.014</t>
   </si>
 </sst>
 </file>
@@ -1178,16 +1184,16 @@
         <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1198,16 +1204,16 @@
         <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1218,16 +1224,16 @@
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1238,16 +1244,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1258,16 +1264,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1278,16 +1284,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1298,16 +1304,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1318,16 +1324,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1338,16 +1344,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1355,19 +1361,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1405,19 +1411,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1425,19 +1431,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1445,19 +1451,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1468,16 +1474,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1488,16 +1494,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1508,16 +1514,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1528,16 +1534,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1548,16 +1554,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F9" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1568,16 +1574,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1588,16 +1594,16 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -1635,19 +1641,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1655,19 +1661,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1675,19 +1681,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1698,16 +1704,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1718,16 +1724,16 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1738,16 +1744,16 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1758,16 +1764,16 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1778,16 +1784,16 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1798,16 +1804,16 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1818,16 +1824,16 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
